--- a/data/output/FV2410_FV2404/MSCONS/13017.xlsx
+++ b/data/output/FV2410_FV2404/MSCONS/13017.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4014" uniqueCount="359">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4035" uniqueCount="359">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nutzdaten-Kopfsegment</t>
@@ -1209,6 +1209,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U173" totalsRowShown="0">
+  <autoFilter ref="A1:U173"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1498,7 +1528,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10016,5 +10049,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/MSCONS/13017.xlsx
+++ b/data/output/FV2410_FV2404/MSCONS/13017.xlsx
@@ -2135,7 +2135,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N15" s="2"/>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N22" s="2"/>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N26" s="2"/>
@@ -3555,7 +3555,7 @@
         <v>337</v>
       </c>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3759,7 +3759,7 @@
         <v>339</v>
       </c>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -5035,7 +5035,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N65" s="2"/>
@@ -5433,7 +5433,7 @@
         <v>343</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5763,7 +5763,7 @@
         <v>345</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5963,7 +5963,7 @@
         <v>346</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6311,7 +6311,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6837,7 +6837,7 @@
         <v>352</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7115,7 +7115,7 @@
         <v>354</v>
       </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -7339,7 +7339,7 @@
         <v>356</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -7559,7 +7559,7 @@
         <v>357</v>
       </c>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -8049,7 +8049,7 @@
         <v>358</v>
       </c>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -8377,7 +8377,7 @@
         <v>359</v>
       </c>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -9569,7 +9569,7 @@
         <v>358</v>
       </c>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N168" s="2"/>
@@ -10953,7 +10953,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N171" s="2"/>
